--- a/PerformerPrototype/Data/Config.xlsx
+++ b/PerformerPrototype/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96aa2c66e503cca3/Documents/UiPath/WorkingPrototype/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0346df80bcaed32e/Desktop/Team Pi/PerformerPrototype/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{9ADA8DC4-5857-4028-85F6-AD0B97B8590E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{51F77DDC-DE2C-4682-A536-913873E93478}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="109_{E069936E-90F9-4BA7-B32C-A5ACD3C6C31E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7E2B5316-01BD-4FAF-974B-C4244FD6E5AB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="810" windowWidth="10160" windowHeight="9340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>C:\Users\angel\OneDrive\Documents\UiPath\WorkingPrototype\Data\Output\HealthGuide.xlsx</t>
+  </si>
+  <si>
+    <t>CDCDataFilePath</t>
+  </si>
+  <si>
+    <t>C:\Users\nfh22\OneDrive\Desktop\Team Pi\PerformerPrototype\DataGatheringGraphing\StateData.xlsx</t>
   </si>
 </sst>
 </file>
@@ -507,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -576,7 +582,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
         <v>31</v>
